--- a/config.xlsx
+++ b/config.xlsx
@@ -2,27 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,18 +45,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -135,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -199,15 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -234,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -246,142 +256,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -393,47 +427,43 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="37.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="26.109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15.21875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="23.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="11" bestFit="1" customWidth="1" min="5" max="5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Type of Query</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Level</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Interaction type</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>Drop-in</t>
@@ -520,6 +550,7 @@
           <t>Significant email thread</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -542,6 +573,7 @@
           <t>Drop-in Zoom</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -559,6 +591,8 @@
           <t>UG3</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -576,6 +610,8 @@
           <t>UG4</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -593,6 +629,8 @@
           <t>Masters</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -610,6 +648,8 @@
           <t>PhD</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -627,6 +667,8 @@
           <t>Staff</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -639,6 +681,9 @@
           <t>Software - Matlab</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -651,6 +696,9 @@
           <t>Software - R</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -663,7 +711,9 @@
           <t>Software - SPSS</t>
         </is>
       </c>
-      <c r="D14" s="1" t="n"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -676,6 +726,9 @@
           <t>Software - Other</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -688,6 +741,9 @@
           <t>Statistics - Data Collection</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -700,6 +756,9 @@
           <t>Statistics - Data Presentation</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -712,6 +771,9 @@
           <t>Statistics - Statistical Testing</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -724,6 +786,9 @@
           <t>Statistics - Statistical Theory</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -736,6 +801,9 @@
           <t>Statistics - Other</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -743,6 +811,10 @@
           <t>Music and Media</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -750,6 +822,10 @@
           <t>Physics</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -757,6 +833,10 @@
           <t>Politics</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -764,6 +844,10 @@
           <t>Psychology</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -771,6 +855,10 @@
           <t>Sociology</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -778,6 +866,10 @@
           <t>Technology Enhanced Learning</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -785,8 +877,12 @@
           <t>Veterinary Medicine</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>